--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4006.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4006.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.459055846694929</v>
+        <v>4.4308180809021</v>
       </c>
       <c r="B1">
-        <v>2.548947930930831</v>
+        <v>4.401615142822266</v>
       </c>
       <c r="C1">
-        <v>3.242477072220418</v>
+        <v>7.271471500396729</v>
       </c>
       <c r="D1">
-        <v>3.696310475602745</v>
+        <v>8.037375450134277</v>
       </c>
       <c r="E1">
-        <v>1.975173810885113</v>
+        <v>5.783596515655518</v>
       </c>
     </row>
   </sheetData>
